--- a/data/georgia_census/guria/choxatauri/healthcare_staff.xlsx
+++ b/data/georgia_census/guria/choxatauri/healthcare_staff.xlsx
@@ -1380,13 +1380,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8814FD6E-AF16-41B0-82B1-B524F9EA9BA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97332452-C3B0-4A63-A66B-47981445D0DB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC9A09BD-65B7-46E2-BD46-38BAFA8658AC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6EED5049-5284-4DA0-A906-26A6BCBC90ED}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B8A1206-8FB6-40C5-ADD3-DF924A5DA546}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5982573D-1F53-4960-95BC-9EE5CAFE88EC}"/>
 </file>